--- a/data/income_statement/2digits/total/59_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/59_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>59-Motion picture, video and television programme production, sound recording and music publishing activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>59-Motion picture, video and television programme production, sound recording and music publishing activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>2084878.57045</v>
@@ -962,31 +868,36 @@
         <v>3548423.79002</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3949997.093780001</v>
+        <v>3951169.02727</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4597564.35335</v>
+        <v>4597869.152519999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5343225.512139999</v>
+        <v>5415617.17055</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5642976.57335</v>
+        <v>5645925.06118</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>6860467.33971</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>7615011.54836</v>
+        <v>7637002.28997</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>7787568.14094</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>7983462.0418</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>7707646.396</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>2008076.73989</v>
@@ -1001,40 +912,45 @@
         <v>3373173.69226</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3756074.304999999</v>
+        <v>3757246.224770001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4359045.826900001</v>
+        <v>4359340.196610001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5074928.342</v>
+        <v>5137418.257590001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5284520.86353</v>
+        <v>5287447.42936</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>6245309.368639999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>6912610.535379998</v>
+        <v>6934585.54395</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>6801514.830120001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>6968982.84783</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>6673739.74</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>41013.87854999999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>35995.33888999999</v>
+        <v>35995.33889</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>79965.65627999998</v>
+        <v>79965.65628</v>
       </c>
       <c r="F7" s="48" t="n">
         <v>101825.77759</v>
@@ -1043,70 +959,80 @@
         <v>116319.59655</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>168601.84301</v>
+        <v>168610.90663</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>192611.0012</v>
+        <v>202369.66646</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>270681.18584</v>
+        <v>270683.27989</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>511288.56502</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>552033.04162</v>
+        <v>552037.04362</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>814890.1094600001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>842798.67131</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>890467.363</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>35787.95201</v>
+        <v>35787.95201000001</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>42337.80354</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>43573.75341999999</v>
+        <v>43573.75342</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>73424.32017000002</v>
+        <v>73424.32017000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>77603.19223</v>
+        <v>77603.20595</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>69916.68343999999</v>
+        <v>69918.04928000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>75686.16894</v>
+        <v>75829.24649999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>87774.52398</v>
+        <v>87794.35193</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>103869.40605</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>150367.97136</v>
+        <v>150379.7024</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>171163.20136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>171680.52266</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>143439.293</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>35039.9838</v>
+        <v>35039.98379999999</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>31049.21202</v>
@@ -1118,31 +1044,36 @@
         <v>45103.2242</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>46732.99331000001</v>
+        <v>46734.98181</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>55517.04432000001</v>
+        <v>55517.12382</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>47002.94432</v>
+        <v>47518.58043</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>74718.38452000001</v>
+        <v>74730.93222</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>74263.38083000001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>104655.87488</v>
+        <v>104663.90188</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>92688.61638999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>92948.84168000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>115728.141</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>33023.67433</v>
@@ -1157,31 +1088,36 @@
         <v>41956.72724999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>43021.98873999999</v>
+        <v>43023.97723999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>46527.86165000001</v>
+        <v>46527.94115</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>43067.2103</v>
+        <v>43582.84641000001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>66346.37894</v>
+        <v>66358.92664000001</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>67993.99935</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>96376.87986999999</v>
+        <v>96381.90687000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>86305.44089</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>86512.47934000001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>108986.352</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1715.40917</v>
@@ -1214,13 +1150,18 @@
         <v>4813.80345</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>2319.6863</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2372.87314</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>5023.566</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>300.9003</v>
@@ -1235,7 +1176,7 @@
         <v>128.84093</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>329.6012400000001</v>
+        <v>329.60124</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>3069.27932</v>
@@ -1250,16 +1191,21 @@
         <v>2309.73914</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>3465.19156</v>
+        <v>3468.19156</v>
       </c>
       <c r="M12" s="48" t="n">
         <v>4063.4892</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>1718.223</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>2049838.58665</v>
@@ -1274,31 +1220,36 @@
         <v>3503320.56582</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3903264.10047</v>
+        <v>3904434.04546</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4542047.309030001</v>
+        <v>4542352.028700001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5296222.56782</v>
+        <v>5368098.59012</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5568258.18883</v>
+        <v>5571194.12896</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>6786203.95888</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>7510355.67348</v>
+        <v>7532338.38809</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>7694879.524549999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>7890513.200119999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>7591918.255</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1631033.60823</v>
@@ -1310,55 +1261,60 @@
         <v>2353343.50056</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2673818.96415</v>
+        <v>2673818.964149999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3003607.3521</v>
+        <v>3004717.91003</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3441576.00656</v>
+        <v>3441780.70611</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4024045.46488</v>
+        <v>4075804.77177</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4342606.171200001</v>
+        <v>4344424.34844</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>5393669.90279</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5735778.35247</v>
+        <v>5754240.06694</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5927150.031730001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6084475.25173</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>5776354.032</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>41052.59473</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>51162.60052</v>
+        <v>51162.60051999999</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>54699.47588000001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>72302.13602000001</v>
+        <v>72302.13601999999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>66866.83053000001</v>
+        <v>66866.83052999999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>54292.90758</v>
+        <v>54292.90758000001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>93752.5819</v>
+        <v>93753.6819</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>79913.18317999999</v>
@@ -1367,16 +1323,21 @@
         <v>119851.36824</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>162322.27721</v>
+        <v>162541.8199</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>99329.97317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>99358.43584999999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>101651.205</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>103312.06346</v>
@@ -1391,31 +1352,36 @@
         <v>157025.35264</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>215029.20405</v>
+        <v>215225.27441</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>289393.12683</v>
+        <v>289399.58761</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>338429.0526</v>
+        <v>338493.60824</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>346432.6743300001</v>
+        <v>346578.94246</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>545701.54188</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>439236.02429</v>
+        <v>449585.23376</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>393574.36141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>413919.34708</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>495507.481</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1470356.36323</v>
@@ -1427,34 +1393,39 @@
         <v>2145673.19622</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2436485.705670001</v>
+        <v>2436485.70567</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2714175.25247</v>
+        <v>2714993.31282</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3088090.78007</v>
+        <v>3088289.01884</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3586209.07253</v>
+        <v>3637760.68735</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3911221.14854</v>
+        <v>3912893.057649999</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>4712066.599</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>4918403.25749</v>
+        <v>4926296.2198</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>5428684.733</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>5565539.96296</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>5159671.667</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>16312.58681</v>
@@ -1469,16 +1440,16 @@
         <v>8005.76982</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>7536.06505</v>
+        <v>7632.492270000002</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>9799.192080000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>5654.75785</v>
+        <v>5796.794279999999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>5039.16515</v>
+        <v>5039.165150000001</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>16050.39367</v>
@@ -1487,19 +1458,24 @@
         <v>215816.79348</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>5560.964150000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>5657.50584</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>19523.679</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>418804.9784199999</v>
+        <v>418804.97842</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>532104.1438300001</v>
+        <v>532104.14383</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>666301.70611</v>
@@ -1508,31 +1484,36 @@
         <v>829501.6016700001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>899656.74837</v>
+        <v>899716.13543</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1100471.30247</v>
+        <v>1100571.32259</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1272177.10294</v>
+        <v>1292293.81835</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1225652.01763</v>
+        <v>1226769.78052</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1392534.05609</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1774577.32101</v>
+        <v>1778098.32115</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1767729.49282</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1806037.94839</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1815564.223</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>326160.09791</v>
@@ -1544,34 +1525,39 @@
         <v>489488.70891</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>513467.60515</v>
+        <v>513467.6051500001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>595422.03871</v>
+        <v>595464.7389300001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>685980.1161900001</v>
+        <v>686418.78538</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>753553.52298</v>
+        <v>772294.2076099999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>883324.15541</v>
+        <v>884181.1433100001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>944995.6810399999</v>
+        <v>944995.6810400001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1170461.10762</v>
+        <v>1173324.32305</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1311758.03491</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1326867.80275</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1295332.922</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1560.31208</v>
@@ -1595,7 +1581,7 @@
         <v>10457.09739</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>33659.64290000001</v>
+        <v>33659.6429</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>1180.82952</v>
@@ -1604,13 +1590,18 @@
         <v>22166.69546</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>77234.18210000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>77234.18209999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>81536.273</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>78779.68018</v>
@@ -1619,79 +1610,89 @@
         <v>90989.6813</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>95841.9296</v>
+        <v>95841.92959999999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>99556.00075000002</v>
+        <v>99556.00075000001</v>
       </c>
       <c r="G22" s="48" t="n">
         <v>125373.20281</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>136413.79631</v>
+        <v>136452.26874</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>123552.62547</v>
+        <v>123797.76174</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>149224.10864</v>
+        <v>149367.55907</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>193447.56197</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>253255.2417</v>
+        <v>253677.02742</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>296185.15418</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>301347.60954</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>248450.601</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>245820.10565</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>303047.5559500001</v>
+        <v>303047.55595</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>393143.5479400001</v>
+        <v>393143.54794</v>
       </c>
       <c r="F23" s="48" t="n">
         <v>411562.36125</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>467980.8078599999</v>
+        <v>468023.5080799999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>546277.4719999998</v>
+        <v>546677.66876</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>619543.80012</v>
+        <v>638039.34848</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>700440.40387</v>
+        <v>701153.94134</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>750367.2895500001</v>
+        <v>750367.28955</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>895039.1704599999</v>
+        <v>897480.6001700001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>938338.6986300001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>948286.01111</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>965346.048</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>92644.88051</v>
+        <v>92644.88050999999</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>135940.95555</v>
@@ -1703,37 +1704,42 @@
         <v>316033.99652</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>304234.7096600001</v>
+        <v>304251.3965</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>414491.18628</v>
+        <v>414152.53721</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>518623.57996</v>
+        <v>519999.61074</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>342327.86222</v>
+        <v>342588.63721</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>447538.3750500001</v>
+        <v>447538.37505</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>604116.2133900003</v>
+        <v>604773.9981</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>455971.45791</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>479170.1456400001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>520231.301</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>91800.68507000001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>77634.12964999999</v>
+        <v>77634.12965000002</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>119724.04026</v>
@@ -1745,28 +1751,33 @@
         <v>159250.78455</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>195710.93668</v>
+        <v>195713.50706</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>344174.02266</v>
+        <v>351953.68342</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>377617.75132</v>
+        <v>377753.24229</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>336609.0235900001</v>
+        <v>336609.02359</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>745101.87495</v>
+        <v>745121.0449600001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>438332.9102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>440148.06244</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>690380.095</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>522.6466499999999</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>9149.910800000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>12181.308</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0.22578</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>7384.26831</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>37251.94</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>13559.58474</v>
@@ -1862,28 +1883,33 @@
         <v>25111.29784</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>35729.24206</v>
+        <v>35731.68788</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>35562.15856</v>
+        <v>35781.31776999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>54611.80007</v>
+        <v>54619.82821</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>62689.16572</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>104660.32176</v>
+        <v>104661.20938</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>96538.0058</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>97070.64938999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>62468.255</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>2298.87724</v>
@@ -1916,13 +1942,18 @@
         <v>5891.15935</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>22199.21377</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>22205.23193</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>18909.386</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>2171.08063</v>
@@ -1943,10 +1974,10 @@
         <v>5981.11083</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>68225.07256999999</v>
+        <v>68339.41974000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>648.0255</v>
+        <v>648.0255000000001</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>3095.29823</v>
@@ -1957,17 +1988,22 @@
       <c r="M30" s="48" t="n">
         <v>6476.71328</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>3613.625</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1620.04011</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>978.9071899999998</v>
+        <v>978.9071899999999</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>1326.23635</v>
@@ -1985,7 +2021,7 @@
         <v>10078.49221</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>11363.24678</v>
+        <v>11363.54483</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>2542.50463</v>
@@ -1994,16 +2030,21 @@
         <v>2659.88467</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>4713.738449999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>4738.2887</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>9219.9</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>61705.53750000001</v>
+        <v>61705.5375</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>46288.19758</v>
@@ -2015,31 +2056,36 @@
         <v>54433.30701</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>86162.80718</v>
+        <v>86162.80717999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>105258.13128</v>
+        <v>105258.25584</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>179401.22286</v>
+        <v>186768.71584</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>231382.56667</v>
+        <v>231480.92662</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>224578.1157</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>586381.90811</v>
+        <v>586389.7945399999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>263780.02052</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>264569.2105</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>524642.96</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>1086.54564</v>
@@ -2057,7 +2103,7 @@
         <v>88.45217</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>280.6919800000001</v>
+        <v>280.69198</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>96.16103</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>75.71768</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>8760.429100000001</v>
@@ -2126,10 +2182,10 @@
         <v>11314.49254</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>17797.17042999999</v>
+        <v>17797.17043</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>35110.42198000001</v>
+        <v>35110.42198</v>
       </c>
       <c r="G35" s="48" t="n">
         <v>29363.65258</v>
@@ -2138,25 +2194,30 @@
         <v>29374.24631</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>35045.18087</v>
+        <v>35123.84226999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>52671.00729000001</v>
+        <v>52699.81212</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>31507.73607</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>31966.23667</v>
+        <v>31976.63263</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>28091.03927</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>28553.78953</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>22092.721</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>73555.64141</v>
@@ -2174,31 +2235,36 @@
         <v>119770.64298</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>142872.15057</v>
+        <v>142872.16879</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>343231.53627</v>
+        <v>346930.35589</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>210552.41187</v>
+        <v>210775.49998</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>269754.04571</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>678792.8109599999</v>
+        <v>678824.3182199999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>335500.13433</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>336193.46655</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>751472.1</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>6227.709500000001</v>
+        <v>6227.7095</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>2260.84643</v>
@@ -2228,16 +2294,21 @@
         <v>24880.6099</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>41332.52031</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>41332.59006</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>33304.66</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>5188.559999999999</v>
+        <v>5188.56</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>4283.95448</v>
@@ -2246,7 +2317,7 @@
         <v>3284.96292</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>2598.031100000001</v>
+        <v>2598.0311</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>9892.250689999999</v>
@@ -2264,22 +2335,27 @@
         <v>11322.54751</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>9618.265260000002</v>
+        <v>9618.26526</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>7543.43812</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>7543.438120000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>160346.164</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>317.80028</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>93.80776000000002</v>
+        <v>93.80776</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>243.67293</v>
@@ -2291,13 +2367,13 @@
         <v>1372.46612</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>50.3634</v>
+        <v>50.36339999999999</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>571.47099</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>6879.644079999999</v>
+        <v>6879.64408</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>93.54911</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>43.04481000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>134.122</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>55490.8903</v>
+        <v>55490.89030000001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>44215.98411</v>
+        <v>44215.98410999999</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>84463.15674999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>44313.69798999999</v>
+        <v>44313.69799</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>102390.63473</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>109878.20871</v>
+        <v>109878.22693</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>196559.86976</v>
+        <v>200225.36672</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>181348.14979</v>
+        <v>181571.2379</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>233240.75379</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>638107.98197</v>
+        <v>638137.6482099999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>276698.6054</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>277217.58964</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>543403.282</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>20.40941</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>97.80280999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>16.64634</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>1.634</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>6293.625579999999</v>
@@ -2444,31 +2540,36 @@
         <v>4240.0235</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>3375.34</v>
+        <v>3375.340000000001</v>
       </c>
       <c r="H43" s="48" t="n">
         <v>4694.43238</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>51239.32062999999</v>
+        <v>51272.64329</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>3164.96323</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>6102.62112</v>
+        <v>6102.621119999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>6072.13422</v>
+        <v>6073.975240000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>9784.722879999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>9959.001109999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>14282.238</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>62239.55898</v>
@@ -2477,37 +2578,42 @@
         <v>61239.88941</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>73819.89401</v>
+        <v>73819.89400999999</v>
       </c>
       <c r="F44" s="47" t="n">
         <v>117468.70051</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>116340.62673</v>
+        <v>116345.55241</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>87075.40125999998</v>
+        <v>87075.40126000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>99801.35762000001</v>
+        <v>99811.14311</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>131902.03637</v>
+        <v>132138.28716</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>142540.7800800001</v>
+        <v>142540.78008</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>235508.65548</v>
+        <v>235509.77243</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>259892.04178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>260361.93708</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>209999.073</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>50337.47326999999</v>
@@ -2522,31 +2628,36 @@
         <v>100029.63875</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>98636.60760999998</v>
+        <v>98641.53328999999</v>
       </c>
       <c r="H45" s="48" t="n">
         <v>60533.2046</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>73061.65675000001</v>
+        <v>73065.73122</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>98477.04844999999</v>
+        <v>98713.29924000001</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>123625.21233</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>204491.1043</v>
+        <v>204492.22125</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>229476.85735</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>229946.75265</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>175767.898</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>11902.08571</v>
@@ -2555,7 +2666,7 @@
         <v>11812.04925</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>9898.389360000001</v>
+        <v>9898.389359999999</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>17439.06176</v>
@@ -2567,13 +2678,13 @@
         <v>26542.19666</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>26739.70087</v>
+        <v>26745.41189</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>33424.98792</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>18915.56774999999</v>
+        <v>18915.56775</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>31017.55118</v>
@@ -2581,17 +2692,22 @@
       <c r="M46" s="48" t="n">
         <v>30415.18443</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>34231.175</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>48650.36519</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>95346.36676</v>
+        <v>95346.36675999999</v>
       </c>
       <c r="E47" s="47" t="n">
         <v>127837.64268</v>
@@ -2600,31 +2716,36 @@
         <v>296928.53629</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>227374.2245</v>
+        <v>227385.98566</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>380254.57113</v>
+        <v>379918.47422</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>419764.70873</v>
+        <v>425211.79516</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>377491.1653</v>
+        <v>377428.09236</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>371852.57285</v>
+        <v>371852.5728499999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>434916.6219</v>
+        <v>435560.95241</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>298912.192</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>322762.8044500001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>249140.223</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>22224.90461</v>
@@ -2633,7 +2754,7 @@
         <v>33715.89549</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>20736.01693</v>
+        <v>20736.01693000001</v>
       </c>
       <c r="F48" s="47" t="n">
         <v>49656.62795</v>
@@ -2642,28 +2763,33 @@
         <v>33170.63513</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>37384.69824000001</v>
+        <v>37679.41678</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>62714.56967</v>
+        <v>62996.94366999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>29928.36246</v>
+        <v>30009.44887</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>71988.74456000001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>55577.87230000001</v>
+        <v>55591.5088</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>54592.75508999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>55754.50968000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>126375.139</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>11474.57548</v>
@@ -2675,10 +2801,10 @@
         <v>335.89046</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>23484.13979</v>
+        <v>23484.14269</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>573.93962</v>
+        <v>573.9396200000001</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>185.54766</v>
@@ -2696,52 +2822,62 @@
         <v>2713.81665</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>5366.40595</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>5442.639</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>514.8579999999999</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>10750.32913</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>33480.55160999999</v>
+        <v>33480.55161</v>
       </c>
       <c r="E50" s="48" t="n">
         <v>20400.12647</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>26172.48816</v>
+        <v>26172.48526</v>
       </c>
       <c r="G50" s="48" t="n">
         <v>32596.69551</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>37199.15058</v>
+        <v>37493.86912</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>61875.55593000001</v>
+        <v>62157.92992999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>29169.0917</v>
+        <v>29250.17811</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>70705.87218000001</v>
+        <v>70705.87217999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>52864.05565000001</v>
+        <v>52877.69215</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>49226.34913999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>50311.87068</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>125860.281</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>23784.93903</v>
@@ -2756,31 +2892,36 @@
         <v>55499.61194</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>72804.31054999999</v>
+        <v>72804.31084999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>88678.58001000002</v>
+        <v>88679.31196000001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>66601.28641999999</v>
+        <v>66921.94189</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>172613.9924</v>
+        <v>172730.49314</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>70624.21334</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>174101.64825</v>
+        <v>174207.44671</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>104995.31848</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>105234.20491</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>103373.279</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>54.05842</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>719.54551</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>1349.367</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1721.1735</v>
@@ -2828,7 +2974,7 @@
         <v>1528.82211</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>6680.72378</v>
+        <v>6680.723779999999</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>1813.8562</v>
@@ -2840,10 +2986,10 @@
         <v>1485.46089</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1800.74495</v>
+        <v>1801.24709</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1716.91519</v>
+        <v>1942.6078</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>2354.8881</v>
@@ -2852,13 +2998,18 @@
         <v>5251.99191</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>5634.22029</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>5634.39829</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>4574.691</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>22009.70711</v>
@@ -2873,31 +3024,36 @@
         <v>53585.54844</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>71090.98638</v>
+        <v>71090.98668</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>87187.14911999999</v>
+        <v>87187.88106999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>64337.69445</v>
+        <v>64657.84778</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>170728.55078</v>
+        <v>170619.35891</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>67844.29781</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>168566.30981</v>
+        <v>168672.10827</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>98641.55268000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>98880.26111000002</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>97449.22100000001</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>47090.33076999999</v>
@@ -2909,34 +3065,39 @@
         <v>-158455.35169</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>291085.5523</v>
+        <v>291085.5523000001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>187740.54908</v>
+        <v>187752.30994</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>328960.6893600001</v>
+        <v>328918.57904</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>415877.99198</v>
+        <v>421286.7969399999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>234805.53536</v>
+        <v>234707.04809</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>373217.10407</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>316392.84595</v>
+        <v>316945.0145</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>248509.62861</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>273283.10922</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>272142.083</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>25258.78658</v>
@@ -2951,31 +3112,36 @@
         <v>66841.09565</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>58759.29012999999</v>
+        <v>58761.64230000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>86349.61485</v>
+        <v>86354.74989000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>96432.7608</v>
+        <v>98542.34572</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>91147.31873999999</v>
+        <v>91155.95978</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>103658.61417</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>138344.82799</v>
+        <v>138701.92431</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>112296.92378</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>116709.40126</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>125939.268</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>21831.54419</v>
@@ -2990,28 +3156,31 @@
         <v>224244.45665</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>128981.25895</v>
+        <v>128990.66764</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>242611.07451</v>
+        <v>242563.82915</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>319445.23118</v>
+        <v>322744.45122</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>143658.21662</v>
+        <v>143551.08831</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>269558.4899</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>178048.01796</v>
+        <v>178243.09019</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>136212.70483</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>156573.70796</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>146202.815</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1341</v>
@@ -3044,28 +3216,31 @@
         <v>1640</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2227</v>
+        <v>2248</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2411</v>
+        <v>2421</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>2562</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2600</v>
+        <v>2688</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2691</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2895</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>